--- a/Excel_Exercice02_FormulesEtOperateurs.xlsx
+++ b/Excel_Exercice02_FormulesEtOperateurs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noann\Documents\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noann\Documents\Gestion\repo_git\depo-projet-gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C606C2B4-7F6E-4837-80BC-5E9D58933172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E814811-E1BB-466A-BC8C-CC0BCC88E301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="37">
   <si>
     <t>Compagnie X</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Opérateurs de base (addition, soustraction, multiplication, pourcentage et parenthésage)</t>
+  </si>
+  <si>
+    <t>Laval, QC,  Canada</t>
   </si>
 </sst>
 </file>
@@ -1341,19 +1344,19 @@
       <selection activeCell="AS50" sqref="AS50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="11.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="3"/>
+    <col min="1" max="1" width="1.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="11.1796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="1.7265625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="15.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1365,8 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
         <v>18</v>
       </c>
@@ -1372,14 +1375,14 @@
       <c r="E4" s="113"/>
       <c r="F4" s="113"/>
     </row>
-    <row r="5" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
         <v>19</v>
@@ -1390,7 +1393,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14" t="s">
@@ -1399,7 +1402,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
@@ -1408,7 +1411,7 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16" t="s">
@@ -1417,8 +1420,8 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:10" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>1</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="11.5" x14ac:dyDescent="0.25">
       <c r="B12" s="20">
         <v>1</v>
       </c>
@@ -1454,7 +1457,7 @@
       </c>
       <c r="J12" s="25"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="26">
         <v>2</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>999.98</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="20">
         <v>3</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="26">
         <v>4</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="11.5" x14ac:dyDescent="0.25">
       <c r="B16" s="31">
         <v>5</v>
       </c>
@@ -1526,7 +1529,7 @@
       </c>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="35">
         <v>6</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31">
         <v>7</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="35">
         <v>8</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="31">
         <v>9</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="39">
         <v>10</v>
       </c>
@@ -1611,8 +1614,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:6" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="43" t="s">
         <v>13</v>
       </c>
@@ -1622,10 +1625,10 @@
         <v>12099.98</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="46"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D25" s="47" t="s">
         <v>14</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="50" t="s">
         <v>13</v>
       </c>
@@ -1644,10 +1647,10 @@
         <v>11599.98</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="53"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D28" s="54" t="s">
         <v>15</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>579.99900000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="57" t="s">
         <v>16</v>
       </c>
@@ -1671,10 +1674,10 @@
         <v>1157.0980050000001</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="53"/>
     </row>
-    <row r="31" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D31" s="60" t="s">
         <v>17</v>
       </c>
@@ -1684,7 +1687,7 @@
         <v>13337.077004999999</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C+8qTaT+AjYg5X1U41RLreZfjPJvXO9YGqqTVDPRT4FUbAFcU6YpHGmJQDK+sylT6UupyQ3rsecUtR8wpbocAg==" saltValue="1TJbgLDI941YSuk2Qa1HqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
@@ -1699,21 +1702,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="63" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" style="63" customWidth="1"/>
+    <col min="2" max="2" width="4.54296875" style="63" customWidth="1"/>
     <col min="3" max="3" width="43" style="63" customWidth="1"/>
-    <col min="4" max="7" width="11.5703125" style="63" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="63"/>
-    <col min="9" max="16384" width="11.5703125" style="1"/>
+    <col min="4" max="7" width="11.54296875" style="63" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="63"/>
+    <col min="9" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" ht="17" x14ac:dyDescent="0.5">
       <c r="B2" s="114" t="s">
         <v>0</v>
       </c>
@@ -1722,8 +1725,8 @@
       <c r="E2" s="114"/>
       <c r="F2" s="114"/>
     </row>
-    <row r="3" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="115" t="s">
         <v>18</v>
       </c>
@@ -1732,7 +1735,7 @@
       <c r="E4" s="115"/>
       <c r="F4" s="115"/>
     </row>
-    <row r="6" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="106" t="s">
         <v>19</v>
       </c>
@@ -1743,7 +1746,7 @@
       <c r="E6" s="107"/>
       <c r="F6" s="103"/>
     </row>
-    <row r="7" spans="2:10" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="10.5" x14ac:dyDescent="0.25">
       <c r="B7" s="101"/>
       <c r="C7" s="101"/>
       <c r="D7" s="108" t="s">
@@ -1752,16 +1755,16 @@
       <c r="E7" s="108"/>
       <c r="F7" s="102"/>
     </row>
-    <row r="8" spans="2:10" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="10.5" x14ac:dyDescent="0.25">
       <c r="B8" s="101"/>
       <c r="C8" s="101"/>
       <c r="D8" s="108" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E8" s="108"/>
       <c r="F8" s="102"/>
     </row>
-    <row r="9" spans="2:10" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="10.5" x14ac:dyDescent="0.25">
       <c r="B9" s="104"/>
       <c r="C9" s="104"/>
       <c r="D9" s="109" t="s">
@@ -1770,8 +1773,8 @@
       <c r="E9" s="109"/>
       <c r="F9" s="105"/>
     </row>
-    <row r="10" spans="2:10" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:10" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:10" ht="11.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="110" t="s">
         <v>1</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="72">
         <v>1</v>
       </c>
@@ -1807,7 +1810,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="74">
         <v>2</v>
       </c>
@@ -1825,7 +1828,7 @@
         <v>999.98</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="72">
         <v>3</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="74">
         <v>4</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="76">
         <v>5</v>
       </c>
@@ -1879,7 +1882,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="78">
         <v>6</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="76">
         <v>7</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="78">
         <v>8</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="76">
         <v>9</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="81">
         <v>10</v>
       </c>
@@ -1964,8 +1967,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="89" t="s">
         <v>13</v>
       </c>
@@ -1975,8 +1978,8 @@
         <v>12099.98</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="91" t="s">
         <v>14</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="92" t="s">
         <v>13</v>
       </c>
@@ -1995,8 +1998,8 @@
         <v>11599.98</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="91" t="s">
         <v>15</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>579.99900000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="92" t="s">
         <v>16</v>
       </c>
@@ -2020,8 +2023,8 @@
         <v>1157.0980050000001</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:6" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" s="89" t="s">
         <v>17</v>
       </c>
@@ -2049,26 +2052,26 @@
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" style="3" customWidth="1"/>
     <col min="4" max="4" width="100" style="3" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="1.7265625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="116" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="116"/>
       <c r="D2" s="116"/>
     </row>
-    <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" s="117" t="s">
         <v>26</v>
       </c>
@@ -2076,34 +2079,34 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" s="117"/>
       <c r="D5" s="66" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="117"/>
       <c r="D6" s="67" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" s="117"/>
       <c r="D7" s="66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" s="117"/>
       <c r="D8" s="68" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="64"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" s="117" t="s">
         <v>32</v>
       </c>
@@ -2111,13 +2114,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" s="117"/>
       <c r="D11" s="70" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" s="117"/>
       <c r="D12" s="71" t="s">
         <v>34</v>
@@ -2135,18 +2138,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2347,6 +2350,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75537EDE-2328-4488-AEEF-C11961CD69A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC4658DC-7977-43C4-99F6-64AC39B05D2C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="9de94308-2297-4d04-a77d-26fce9df9395"/>
@@ -2359,14 +2370,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="22375818-dcd7-42e4-9660-6b33e030de66"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75537EDE-2328-4488-AEEF-C11961CD69A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
